--- a/worksheet.xlsx
+++ b/worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf123ed536ad394/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baf123ed536ad394/Desktop/H2S-GenAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC69597-66B2-4522-B115-842FE54BC357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24105" yWindow="5055" windowWidth="20160" windowHeight="16830" xr2:uid="{7CB7AABE-6B09-4185-B48A-ADCC8DC74CE7}"/>
+    <workbookView minimized="1" xWindow="2565" yWindow="1575" windowWidth="15165" windowHeight="11295" xr2:uid="{7CB7AABE-6B09-4185-B48A-ADCC8DC74CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="firstDraft" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -694,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -832,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -855,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -901,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -947,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
